--- a/storage/data/type_other_costs.xlsx
+++ b/storage/data/type_other_costs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="type_other_costs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Frais mensuels</t>
-  </si>
-  <si>
-    <t>school_id</t>
   </si>
 </sst>
 </file>
@@ -861,18 +858,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -883,13 +880,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -902,11 +896,8 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -919,11 +910,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -936,11 +924,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -953,11 +938,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -970,11 +952,8 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -987,11 +966,8 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1004,11 +980,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1019,9 +992,6 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
         <v>1</v>
       </c>
     </row>
